--- a/biology/Botanique/Vaccinium_cylindraceum/Vaccinium_cylindraceum.xlsx
+++ b/biology/Botanique/Vaccinium_cylindraceum/Vaccinium_cylindraceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium cylindraceum est une espèce de plante à fleurs de la famille des Ericaceae. Elle est endémique de l'archipel des Açores.
 Ce sont des arbustes à petits fruits comestibles.
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Edward Smith décrit l'espèce en 1817 à partir d'un spécimen probablement récolté par Francis Masson. L'épithète spécifique fait référence à la forme de la corolle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Edward Smith décrit l'espèce en 1817 à partir d'un spécimen probablement récolté par Francis Masson. L'épithète spécifique fait référence à la forme de la corolle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est principalement pollinisée par des Microlépidoptères. L'autogamie est faible. Les fruits sont disséminés par les oiseaux[3], notamment le Bouvreuil des Açores, une espèce en danger d'extinction[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est principalement pollinisée par des Microlépidoptères. L'autogamie est faible. Les fruits sont disséminés par les oiseaux, notamment le Bouvreuil des Açores, une espèce en danger d'extinction.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Açores[3], où elle pousse dans les forêts de haute altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel des Açores, où elle pousse dans les forêts de haute altitude.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est cultivée pour ses fruits comestibles, crus ou cuits[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est cultivée pour ses fruits comestibles, crus ou cuits.
 </t>
         </is>
       </c>
